--- a/biology/Biochimie/Ganglioside/Ganglioside.xlsx
+++ b/biology/Biochimie/Ganglioside/Ganglioside.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les gangliosides sont des lipides qui font partie des glycosphingolipides. Ils sont constitués d’un céramide lié par une liaison osidique à un ou plusieurs oses chargés. 
 Les gangliosides contiennent deux résidus osidiques ou plus dont au moins un est estérifié par un acide sialique (ex. : acide N-acétylneuraminique).
@@ -513,7 +525,9 @@
           <t>Nomenclature</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La première lettre du nom est G, pour le ganglioside ; la suivante désigne le nombre d'acide sialique : M pour mono-, D pour di-, T pour tri-, etc.
 </t>
@@ -544,7 +558,9 @@
           <t>Pathologies</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En somme, les gangliosides sont précurseurs de bon nombre de pathologies, comme celle de Tay-Sachs, résultant d'une accumulation de GM2 dans le cerveau.
 </t>
